--- a/natmiOut/OldD2/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Artn</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.436210260601962</v>
+        <v>0.534048</v>
       </c>
       <c r="H2">
-        <v>0.436210260601962</v>
+        <v>1.602144</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4424453651869046</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5032206999227333</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.86459277226514</v>
+        <v>3.87073</v>
       </c>
       <c r="N2">
-        <v>3.86459277226514</v>
+        <v>7.74146</v>
       </c>
       <c r="O2">
-        <v>0.4693725625640518</v>
+        <v>0.4357780537476825</v>
       </c>
       <c r="P2">
-        <v>0.4693725625640518</v>
+        <v>0.3549718160138305</v>
       </c>
       <c r="Q2">
-        <v>1.685775020310236</v>
+        <v>2.06715561504</v>
       </c>
       <c r="R2">
-        <v>1.685775020310236</v>
+        <v>12.40293369024</v>
       </c>
       <c r="S2">
-        <v>0.4693725625640518</v>
+        <v>0.1928079801308319</v>
       </c>
       <c r="T2">
-        <v>0.4693725625640518</v>
+        <v>0.1786291657073235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.436210260601962</v>
+        <v>0.534048</v>
       </c>
       <c r="H3">
-        <v>0.436210260601962</v>
+        <v>1.602144</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4424453651869046</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5032206999227333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12909862672013</v>
+        <v>3.384385</v>
       </c>
       <c r="N3">
-        <v>3.12909862672013</v>
+        <v>10.153155</v>
       </c>
       <c r="O3">
-        <v>0.3800434165999931</v>
+        <v>0.38102391756409</v>
       </c>
       <c r="P3">
-        <v>0.3800434165999931</v>
+        <v>0.4655560926000913</v>
       </c>
       <c r="Q3">
-        <v>1.364944927410829</v>
+        <v>1.80742404048</v>
       </c>
       <c r="R3">
-        <v>1.364944927410829</v>
+        <v>16.26681636432</v>
       </c>
       <c r="S3">
-        <v>0.3800434165999931</v>
+        <v>0.1685822663515889</v>
       </c>
       <c r="T3">
-        <v>0.3800434165999931</v>
+        <v>0.2342774627715108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.436210260601962</v>
+        <v>0.534048</v>
       </c>
       <c r="H4">
-        <v>0.436210260601962</v>
+        <v>1.602144</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4424453651869046</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5032206999227333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5653357613348799</v>
+        <v>0.6595906666666668</v>
       </c>
       <c r="N4">
-        <v>0.5653357613348799</v>
+        <v>1.978772</v>
       </c>
       <c r="O4">
-        <v>0.06866262777056362</v>
+        <v>0.07425863777378852</v>
       </c>
       <c r="P4">
-        <v>0.06866262777056362</v>
+        <v>0.09073331003677852</v>
       </c>
       <c r="Q4">
-        <v>0.2466052597794966</v>
+        <v>0.352253076352</v>
       </c>
       <c r="R4">
-        <v>0.2466052597794966</v>
+        <v>3.170277687168</v>
       </c>
       <c r="S4">
-        <v>0.06866262777056362</v>
+        <v>0.03285539010810593</v>
       </c>
       <c r="T4">
-        <v>0.06866262777056362</v>
+        <v>0.04565887978301406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.534048</v>
+      </c>
+      <c r="H5">
+        <v>1.602144</v>
+      </c>
+      <c r="I5">
+        <v>0.4424453651869046</v>
+      </c>
+      <c r="J5">
+        <v>0.5032206999227333</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.967637</v>
+      </c>
+      <c r="N5">
+        <v>1.935274</v>
+      </c>
+      <c r="O5">
+        <v>0.1089393909144389</v>
+      </c>
+      <c r="P5">
+        <v>0.08873878134929972</v>
+      </c>
+      <c r="Q5">
+        <v>0.5167646045759999</v>
+      </c>
+      <c r="R5">
+        <v>3.100587627456</v>
+      </c>
+      <c r="S5">
+        <v>0.0481997285963779</v>
+      </c>
+      <c r="T5">
+        <v>0.044655191660885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.706973</v>
+      </c>
+      <c r="I6">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J6">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.87073</v>
+      </c>
+      <c r="N6">
+        <v>7.74146</v>
+      </c>
+      <c r="O6">
+        <v>0.4357780537476825</v>
+      </c>
+      <c r="P6">
+        <v>0.3549718160138305</v>
+      </c>
+      <c r="Q6">
+        <v>0.9121672000966666</v>
+      </c>
+      <c r="R6">
+        <v>5.47300320058</v>
+      </c>
+      <c r="S6">
+        <v>0.08507976569960918</v>
+      </c>
+      <c r="T6">
+        <v>0.07882312524192808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.706973</v>
+      </c>
+      <c r="I7">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J7">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.384385</v>
+      </c>
+      <c r="N7">
+        <v>10.153155</v>
+      </c>
+      <c r="O7">
+        <v>0.38102391756409</v>
+      </c>
+      <c r="P7">
+        <v>0.4655560926000913</v>
+      </c>
+      <c r="Q7">
+        <v>0.7975562722016665</v>
+      </c>
+      <c r="R7">
+        <v>7.178006449814998</v>
+      </c>
+      <c r="S7">
+        <v>0.07438976183750139</v>
+      </c>
+      <c r="T7">
+        <v>0.1033788727405048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.706973</v>
+      </c>
+      <c r="I8">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J8">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6595906666666668</v>
+      </c>
+      <c r="N8">
+        <v>1.978772</v>
+      </c>
+      <c r="O8">
+        <v>0.07425863777378852</v>
+      </c>
+      <c r="P8">
+        <v>0.09073331003677852</v>
+      </c>
+      <c r="Q8">
+        <v>0.1554375974617778</v>
+      </c>
+      <c r="R8">
+        <v>1.398938377156</v>
+      </c>
+      <c r="S8">
+        <v>0.01449799375767595</v>
+      </c>
+      <c r="T8">
+        <v>0.02014774902682705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.706973</v>
+      </c>
+      <c r="I9">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J9">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.967637</v>
+      </c>
+      <c r="N9">
+        <v>1.935274</v>
+      </c>
+      <c r="O9">
+        <v>0.1089393909144389</v>
+      </c>
+      <c r="P9">
+        <v>0.08873878134929972</v>
+      </c>
+      <c r="Q9">
+        <v>0.2280310776003333</v>
+      </c>
+      <c r="R9">
+        <v>1.368186465602</v>
+      </c>
+      <c r="S9">
+        <v>0.0212689413217333</v>
+      </c>
+      <c r="T9">
+        <v>0.01970485475342469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.436210260601962</v>
-      </c>
-      <c r="H5">
-        <v>0.436210260601962</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.67450219459984</v>
-      </c>
-      <c r="N5">
-        <v>0.67450219459984</v>
-      </c>
-      <c r="O5">
-        <v>0.08192139306539152</v>
-      </c>
-      <c r="P5">
-        <v>0.08192139306539152</v>
-      </c>
-      <c r="Q5">
-        <v>0.2942247780829915</v>
-      </c>
-      <c r="R5">
-        <v>0.2942247780829915</v>
-      </c>
-      <c r="S5">
-        <v>0.08192139306539152</v>
-      </c>
-      <c r="T5">
-        <v>0.08192139306539152</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.4373315</v>
+      </c>
+      <c r="H10">
+        <v>0.874663</v>
+      </c>
+      <c r="I10">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J10">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.87073</v>
+      </c>
+      <c r="N10">
+        <v>7.74146</v>
+      </c>
+      <c r="O10">
+        <v>0.4357780537476825</v>
+      </c>
+      <c r="P10">
+        <v>0.3549718160138305</v>
+      </c>
+      <c r="Q10">
+        <v>1.692792156995</v>
+      </c>
+      <c r="R10">
+        <v>6.77116862798</v>
+      </c>
+      <c r="S10">
+        <v>0.1578903079172414</v>
+      </c>
+      <c r="T10">
+        <v>0.09751952506457889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.4373315</v>
+      </c>
+      <c r="H11">
+        <v>0.874663</v>
+      </c>
+      <c r="I11">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J11">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.384385</v>
+      </c>
+      <c r="N11">
+        <v>10.153155</v>
+      </c>
+      <c r="O11">
+        <v>0.38102391756409</v>
+      </c>
+      <c r="P11">
+        <v>0.4655560926000913</v>
+      </c>
+      <c r="Q11">
+        <v>1.4800981686275</v>
+      </c>
+      <c r="R11">
+        <v>8.880589011764998</v>
+      </c>
+      <c r="S11">
+        <v>0.1380518893749998</v>
+      </c>
+      <c r="T11">
+        <v>0.1278997570880757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.4373315</v>
+      </c>
+      <c r="H12">
+        <v>0.874663</v>
+      </c>
+      <c r="I12">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J12">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6595906666666668</v>
+      </c>
+      <c r="N12">
+        <v>1.978772</v>
+      </c>
+      <c r="O12">
+        <v>0.07425863777378852</v>
+      </c>
+      <c r="P12">
+        <v>0.09073331003677852</v>
+      </c>
+      <c r="Q12">
+        <v>0.2884597756393334</v>
+      </c>
+      <c r="R12">
+        <v>1.730758653836</v>
+      </c>
+      <c r="S12">
+        <v>0.02690525390800664</v>
+      </c>
+      <c r="T12">
+        <v>0.02492668122693742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.4373315</v>
+      </c>
+      <c r="H13">
+        <v>0.874663</v>
+      </c>
+      <c r="I13">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J13">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.967637</v>
+      </c>
+      <c r="N13">
+        <v>1.935274</v>
+      </c>
+      <c r="O13">
+        <v>0.1089393909144389</v>
+      </c>
+      <c r="P13">
+        <v>0.08873878134929972</v>
+      </c>
+      <c r="Q13">
+        <v>0.4231781406655</v>
+      </c>
+      <c r="R13">
+        <v>1.692712562662</v>
+      </c>
+      <c r="S13">
+        <v>0.03947072099632775</v>
+      </c>
+      <c r="T13">
+        <v>0.02437873493499002</v>
       </c>
     </row>
   </sheetData>
